--- a/docs/kode prodi siakad.xlsx
+++ b/docs/kode prodi siakad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2022\04_UMM\22umm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\Dashboard\23pmb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DFB006-1B38-4ECA-ABAA-E1A7780273EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2699ED6-0087-4D5C-AEFB-55FB9BF6DEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3DBA8F59-5EDC-47C5-B697-A7403697935F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3DBA8F59-5EDC-47C5-B697-A7403697935F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="94">
   <si>
     <t>jenjang</t>
   </si>
@@ -230,9 +233,6 @@
     <t>PENDIDIKAN SENI PERTUNJUKAN</t>
   </si>
   <si>
-    <t>PENDIDIKAN BAHASA INDONESIA (S1)</t>
-  </si>
-  <si>
     <t>PENDIDIKAN SOSIOLOGI</t>
   </si>
   <si>
@@ -242,9 +242,6 @@
     <t>PENDIDIKAN GURU TAMAN KANAK-KANAK</t>
   </si>
   <si>
-    <t>PERPAJAKAN</t>
-  </si>
-  <si>
     <t>AKUNTANSI D3</t>
   </si>
   <si>
@@ -300,6 +297,30 @@
   </si>
   <si>
     <t>Teknik</t>
+  </si>
+  <si>
+    <t>TEKNIK INDUSTRI DAN MANAJEMEN</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN VOKASI KETEKNIKAN</t>
+  </si>
+  <si>
+    <t>STUDI LINGKUNGAN</t>
+  </si>
+  <si>
+    <t>ADMINISTRASI PAJAK</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN BAHASA INDONESIA</t>
+  </si>
+  <si>
+    <t>PETERNAKAN</t>
+  </si>
+  <si>
+    <t>STATISTIKA</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN PROFESI DOKTER</t>
   </si>
 </sst>
 </file>
@@ -651,24 +672,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFECD04-D2F0-4EA0-B4A8-35995351D304}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -679,7 +701,7 @@
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -687,21 +709,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -709,10 +731,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -720,54 +742,54 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -775,32 +797,32 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -811,7 +833,7 @@
         <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -819,10 +841,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -830,10 +852,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -841,21 +863,21 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -866,7 +888,7 @@
         <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -874,43 +896,43 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="e">
-        <v>#N/A</v>
+      <c r="A23" t="s">
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -918,10 +940,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -929,10 +951,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -940,65 +962,65 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -1006,98 +1028,98 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -1105,10 +1127,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -1116,10 +1138,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -1127,10 +1149,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -1138,54 +1160,54 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
@@ -1193,186 +1215,186 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -1380,10 +1402,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -1391,21 +1413,21 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -1413,21 +1435,21 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -1435,10 +1457,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -1446,10 +1468,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -1457,30 +1479,97 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="A74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
         <v>86</v>
       </c>
-      <c r="B74" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C74" xr:uid="{8BFECD04-D2F0-4EA0-B4A8-35995351D304}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C74">
-      <sortCondition ref="B1:B74"/>
+      <sortCondition ref="A2:A74"/>
+      <sortCondition ref="B2:B74"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
